--- a/biology/Botanique/Hierochloe/Hierochloe.xlsx
+++ b/biology/Botanique/Hierochloe/Hierochloe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hierochloe est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, qui compte environ 35 espèces.
-Ce sont des plantes herbacées vivaces rhizomateuses, originaires des régions tempérées et subarctique d'Eurasie et d'Amérique du Nord, bien que certaines espèces s'étendent aussi plus au Sud en Australie et en Amérique latine[2],[3].
+Ce sont des plantes herbacées vivaces rhizomateuses, originaires des régions tempérées et subarctique d'Eurasie et d'Amérique du Nord, bien que certaines espèces s'étendent aussi plus au Sud en Australie et en Amérique latine,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (15 janvier 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (15 janvier 2017) :
 Hierochloe alpina (Sw. ex Willd.) Roem. &amp; Schult.
 Hierochloe australis (Schrad.) Roem. &amp; Schult.
 Hierochloe brunonis Hook.f.
